--- a/docs/attack-excel-files/v18.1/mobile-attack/mobile-attack-v18.1-matrices.xlsx
+++ b/docs/attack-excel-files/v18.1/mobile-attack/mobile-attack-v18.1-matrices.xlsx
@@ -430,7 +430,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,14 +441,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -508,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -518,9 +510,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -880,7 +869,7 @@
         <v>6</v>
       </c>
       <c r="N1" s="3"/>
-      <c r="O1" s="4" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
       <c r="P1" s="3" t="s">
@@ -969,7 +958,7 @@
       <c r="K3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>81</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -1016,7 +1005,7 @@
       <c r="K4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="5"/>
+      <c r="M4" s="4"/>
       <c r="N4" s="2" t="s">
         <v>89</v>
       </c>
@@ -1061,7 +1050,7 @@
       <c r="P5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="4" t="s">
         <v>110</v>
       </c>
       <c r="S5" s="2" t="s">
@@ -1078,13 +1067,13 @@
       <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>44</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>74</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -1096,7 +1085,7 @@
       <c r="P6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="R6" s="5"/>
+      <c r="R6" s="4"/>
       <c r="S6" s="2" t="s">
         <v>119</v>
       </c>
@@ -1117,11 +1106,11 @@
       <c r="F7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="2" t="s">
         <v>78</v>
       </c>
@@ -1134,7 +1123,7 @@
       <c r="P7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R7" s="5"/>
+      <c r="R7" s="4"/>
       <c r="S7" s="2" t="s">
         <v>120</v>
       </c>
@@ -1149,7 +1138,7 @@
       <c r="E8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="2" t="s">
         <v>58</v>
       </c>
@@ -1173,7 +1162,7 @@
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1185,7 +1174,7 @@
       <c r="I9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="4" t="s">
         <v>86</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -1202,21 +1191,21 @@
       </c>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="5"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="4" t="s">
         <v>46</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="5"/>
+      <c r="M10" s="4"/>
       <c r="N10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="4" t="s">
         <v>74</v>
       </c>
       <c r="Q10" s="2" t="s">
@@ -1230,18 +1219,18 @@
       </c>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="5"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="2" t="s">
         <v>60</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P11" s="5"/>
+      <c r="P11" s="4"/>
       <c r="Q11" s="2" t="s">
         <v>78</v>
       </c>
@@ -1253,14 +1242,14 @@
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="I12" s="5"/>
+      <c r="I12" s="4"/>
       <c r="J12" s="2" t="s">
         <v>61</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="4" t="s">
         <v>115</v>
       </c>
       <c r="S12" s="2" t="s">
@@ -1268,43 +1257,43 @@
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="4" t="s">
         <v>81</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="R13" s="5"/>
+      <c r="R13" s="4"/>
       <c r="S13" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="I14" s="5"/>
+      <c r="I14" s="4"/>
       <c r="J14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P14" s="5"/>
+      <c r="P14" s="4"/>
       <c r="Q14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="R14" s="5"/>
+      <c r="R14" s="4"/>
       <c r="S14" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:23">
-      <c r="I15" s="5"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="P15" s="4" t="s">
         <v>99</v>
       </c>
       <c r="Q15" s="2" t="s">
@@ -1315,7 +1304,7 @@
       <c r="I16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P16" s="5"/>
+      <c r="P16" s="4"/>
       <c r="Q16" s="2" t="s">
         <v>104</v>
       </c>
@@ -1327,7 +1316,7 @@
       <c r="J17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P17" s="5"/>
+      <c r="P17" s="4"/>
       <c r="Q17" s="2" t="s">
         <v>105</v>
       </c>
@@ -1336,25 +1325,25 @@
       <c r="I18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P18" s="5"/>
+      <c r="P18" s="4"/>
       <c r="Q18" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19" spans="9:17">
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="4" t="s">
         <v>50</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P19" s="5"/>
+      <c r="P19" s="4"/>
       <c r="Q19" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="20" spans="9:17">
-      <c r="I20" s="5"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="2" t="s">
         <v>67</v>
       </c>
@@ -1496,7 +1485,7 @@
         <v>6</v>
       </c>
       <c r="N1" s="3"/>
-      <c r="O1" s="4" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
       <c r="P1" s="3" t="s">
@@ -1585,7 +1574,7 @@
       <c r="K3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>81</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -1632,7 +1621,7 @@
       <c r="K4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="5"/>
+      <c r="M4" s="4"/>
       <c r="N4" s="2" t="s">
         <v>89</v>
       </c>
@@ -1665,7 +1654,7 @@
       <c r="I5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>74</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -1677,7 +1666,7 @@
       <c r="P5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="4" t="s">
         <v>110</v>
       </c>
       <c r="S5" s="2" t="s">
@@ -1694,13 +1683,13 @@
       <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>44</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="4"/>
       <c r="L6" s="2" t="s">
         <v>78</v>
       </c>
@@ -1710,7 +1699,7 @@
       <c r="P6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="R6" s="5"/>
+      <c r="R6" s="4"/>
       <c r="S6" s="2" t="s">
         <v>119</v>
       </c>
@@ -1731,7 +1720,7 @@
       <c r="F7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="2" t="s">
         <v>57</v>
       </c>
@@ -1750,7 +1739,7 @@
       <c r="P7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R7" s="5"/>
+      <c r="R7" s="4"/>
       <c r="S7" s="2" t="s">
         <v>120</v>
       </c>
@@ -1765,7 +1754,7 @@
       <c r="E8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="2" t="s">
         <v>58</v>
       </c>
@@ -1783,7 +1772,7 @@
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1795,7 +1784,7 @@
       <c r="I9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="4" t="s">
         <v>86</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -1812,21 +1801,21 @@
       </c>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="5"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="4" t="s">
         <v>46</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="5"/>
+      <c r="M10" s="4"/>
       <c r="N10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="4" t="s">
         <v>74</v>
       </c>
       <c r="Q10" s="2" t="s">
@@ -1840,18 +1829,18 @@
       </c>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="5"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="2" t="s">
         <v>60</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P11" s="5"/>
+      <c r="P11" s="4"/>
       <c r="Q11" s="2" t="s">
         <v>78</v>
       </c>
@@ -1863,14 +1852,14 @@
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="I12" s="5"/>
+      <c r="I12" s="4"/>
       <c r="J12" s="2" t="s">
         <v>61</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="4" t="s">
         <v>115</v>
       </c>
       <c r="S12" s="2" t="s">
@@ -1878,43 +1867,43 @@
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="4" t="s">
         <v>81</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="R13" s="5"/>
+      <c r="R13" s="4"/>
       <c r="S13" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="I14" s="5"/>
+      <c r="I14" s="4"/>
       <c r="J14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P14" s="5"/>
+      <c r="P14" s="4"/>
       <c r="Q14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="R14" s="5"/>
+      <c r="R14" s="4"/>
       <c r="S14" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:23">
-      <c r="I15" s="5"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="P15" s="4" t="s">
         <v>99</v>
       </c>
       <c r="Q15" s="2" t="s">
@@ -1925,7 +1914,7 @@
       <c r="I16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P16" s="5"/>
+      <c r="P16" s="4"/>
       <c r="Q16" s="2" t="s">
         <v>104</v>
       </c>
@@ -1937,7 +1926,7 @@
       <c r="J17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P17" s="5"/>
+      <c r="P17" s="4"/>
       <c r="Q17" s="2" t="s">
         <v>105</v>
       </c>
@@ -1946,25 +1935,25 @@
       <c r="I18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P18" s="5"/>
+      <c r="P18" s="4"/>
       <c r="Q18" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19" spans="9:17">
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="4" t="s">
         <v>50</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P19" s="5"/>
+      <c r="P19" s="4"/>
       <c r="Q19" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="20" spans="9:17">
-      <c r="I20" s="5"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="2" t="s">
         <v>67</v>
       </c>
@@ -2083,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -2102,7 +2091,7 @@
         <v>6</v>
       </c>
       <c r="M1" s="3"/>
-      <c r="N1" s="4" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
       <c r="O1" s="3" t="s">
@@ -2117,7 +2106,7 @@
         <v>10</v>
       </c>
       <c r="T1" s="3"/>
-      <c r="U1" s="4" t="s">
+      <c r="U1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2193,7 +2182,7 @@
       <c r="K3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>81</v>
       </c>
       <c r="M3" s="2" t="s">
@@ -2234,20 +2223,20 @@
       <c r="I4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>74</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="4"/>
       <c r="M4" s="2" t="s">
         <v>89</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="4" t="s">
         <v>110</v>
       </c>
       <c r="R4" s="2" t="s">
@@ -2270,7 +2259,7 @@
       <c r="I5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="2" t="s">
         <v>78</v>
       </c>
@@ -2280,7 +2269,7 @@
       <c r="O5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q5" s="5"/>
+      <c r="Q5" s="4"/>
       <c r="R5" s="2" t="s">
         <v>119</v>
       </c>
@@ -2307,7 +2296,7 @@
       <c r="O6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Q6" s="5"/>
+      <c r="Q6" s="4"/>
       <c r="R6" s="2" t="s">
         <v>120</v>
       </c>
@@ -2328,7 +2317,7 @@
       <c r="M7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="4" t="s">
         <v>74</v>
       </c>
       <c r="P7" s="2" t="s">
@@ -2351,7 +2340,7 @@
       <c r="L8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="O8" s="5"/>
+      <c r="O8" s="4"/>
       <c r="P8" s="2" t="s">
         <v>78</v>
       </c>
@@ -2360,7 +2349,7 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2372,7 +2361,7 @@
       <c r="I9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>86</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -2386,7 +2375,7 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="5"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
@@ -2396,11 +2385,11 @@
       <c r="I10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L10" s="5"/>
+      <c r="L10" s="4"/>
       <c r="M10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="4" t="s">
         <v>81</v>
       </c>
       <c r="P10" s="2" t="s">
@@ -2411,15 +2400,15 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="5"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="5"/>
+      <c r="O11" s="4"/>
       <c r="P11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="4" t="s">
         <v>115</v>
       </c>
       <c r="R11" s="2" t="s">
@@ -2427,41 +2416,41 @@
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="4" t="s">
         <v>99</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Q12" s="5"/>
+      <c r="Q12" s="4"/>
       <c r="R12" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="O13" s="5"/>
+      <c r="O13" s="4"/>
       <c r="P13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="Q13" s="5"/>
+      <c r="Q13" s="4"/>
       <c r="R13" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="O14" s="5"/>
+      <c r="O14" s="4"/>
       <c r="P14" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="O15" s="5"/>
+      <c r="O15" s="4"/>
       <c r="P15" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="O16" s="5"/>
+      <c r="O16" s="4"/>
       <c r="P16" s="2" t="s">
         <v>107</v>
       </c>
